--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Raw Data and T Test" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Frequencies" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t xml:space="preserve">Kernel Used</t>
   </si>
@@ -79,6 +80,12 @@
   <si>
     <t xml:space="preserve">standard error</t>
   </si>
+  <si>
+    <t xml:space="preserve">Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bins(crude ik)</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -110,15 +117,21 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Arial"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
@@ -127,8 +140,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -179,19 +192,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,7 +242,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -267,7 +280,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -279,13 +292,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
               </a:rPr>
               <a:t>Mean Accuracies of SVMs Utilizing Different Kernels
 With Std. Error Bars</a:t>
@@ -312,7 +325,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$5</c:f>
+              <c:f>'Raw Data and T Test'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -342,6 +355,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -371,7 +385,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>'Raw Data and T Test'!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -382,7 +396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$6</c:f>
+              <c:f>'Raw Data and T Test'!$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -398,7 +412,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$5</c:f>
+              <c:f>'Raw Data and T Test'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -428,6 +442,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -457,7 +472,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>'Raw Data and T Test'!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -468,7 +483,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$6</c:f>
+              <c:f>'Raw Data and T Test'!$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -481,17 +496,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="77341266"/>
-        <c:axId val="21351377"/>
+        <c:axId val="91023417"/>
+        <c:axId val="81510714"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77341266"/>
+        <c:axId val="91023417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -503,17 +518,17 @@
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-5400000"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21351377"/>
+        <c:crossAx val="81510714"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -521,7 +536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21351377"/>
+        <c:axId val="81510714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -545,13 +560,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t>Accuracy (%)</a:t>
                 </a:r>
@@ -566,7 +581,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -582,13 +597,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77341266"/>
+        <c:crossAx val="91023417"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -636,20 +651,963 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Distribution of Accuracy of an SVM Model Trained With the RBF Kernel vs the Custom Kernel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Frequencies!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Frequencies!$B$3:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Frequencies!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Frequencies!$C$3:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="80663517"/>
+        <c:axId val="60767259"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80663517"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60767259"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60767259"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80663517"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>29880</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>830520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221760</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -657,8 +1615,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="29880" y="38160"/>
-        <a:ext cx="5758920" cy="3241800"/>
+        <a:off x="4094280" y="3619800"/>
+        <a:ext cx="5768640" cy="3241080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>943920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>48960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2931840" y="190800"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -676,977 +1669,907 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <f aca="false">B3-C3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">B4-C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false">B5-C5</f>
         <v>-8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false">B6-C6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">AVERAGE(B3:B52)</f>
         <v>51.2</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false">AVERAGE(C3:C52)</f>
         <v>55.16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false">B7-C7</f>
         <v>-8</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">STDEV(B3:B52)</f>
         <v>1.8516401995451</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <f aca="false">STDEV(C3:C52)</f>
         <v>7.32164808033307</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false">B8-C8</f>
         <v>-4</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">(G7^2)</f>
         <v>3.42857142857143</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <f aca="false">(H7^2)</f>
         <v>53.6065306122449</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">B9-C9</f>
         <v>-12</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="G9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">B10-C10</f>
         <v>-4</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="1" t="n">
         <f aca="false">G6-H6</f>
         <v>-3.95999999999999</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">B11-C11</f>
         <v>-8</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">VAR(D3:D52)</f>
         <v>54.9779591836735</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <f aca="false">B12-C12</f>
         <v>-4</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <f aca="false">B13-C13</f>
         <v>-4</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <f aca="false">(G6-H6)/SQRT(G8/G9+H8/H9)</f>
         <v>-3.70773833008212</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false">B14-C14</f>
         <v>12</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="1" t="n">
         <v>1.6611</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <f aca="false">B15-C15</f>
         <v>-17</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="1" t="n">
         <f aca="false">TTEST(B3:B52,C3:C52,1,3)</f>
         <v>0.000243109419268231</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="B16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <f aca="false">B16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <f aca="false">B17-C17</f>
         <v>-4</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <f aca="false">B18-C18</f>
         <v>-4</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="1" t="n">
         <f aca="false">G7/SQRT(G9)</f>
         <v>0.261861468283191</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="1" t="n">
         <f aca="false">H7/SQRT(H9)</f>
         <v>1.035437401413</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="B19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <f aca="false">B19-C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <f aca="false">B20-C20</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <f aca="false">B21-C21</f>
         <v>-4</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <f aca="false">B22-C22</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="B23" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <f aca="false">B23-C23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <f aca="false">B24-C24</f>
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <f aca="false">B25-C25</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <f aca="false">B26-C26</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <f aca="false">B27-C27</f>
         <v>-17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <f aca="false">B28-C28</f>
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="B29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <f aca="false">B29-C29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <f aca="false">B30-C30</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <f aca="false">B31-C31</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <f aca="false">B32-C32</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C33" s="0" t="n">
+      <c r="B33" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <f aca="false">B33-C33</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <f aca="false">B34-C34</f>
         <v>-17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <f aca="false">B35-C35</f>
         <v>-13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <f aca="false">B36-C36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <f aca="false">B37-C37</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B38" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <f aca="false">B38-C38</f>
         <v>-8</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <f aca="false">B39-C39</f>
         <v>16</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <f aca="false">B40-C40</f>
         <v>-4</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <f aca="false">B41-C41</f>
         <v>-4</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="B42" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <f aca="false">B42-C42</f>
         <v>-17</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D43" s="0" t="n">
+      <c r="C43" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1" t="n">
         <f aca="false">B43-C43</f>
         <v>4</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C44" s="0" t="n">
+      <c r="B44" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <f aca="false">B44-C44</f>
         <v>4</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C45" s="0" t="n">
+      <c r="B45" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <f aca="false">B45-C45</f>
         <v>8</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C46" s="0" t="n">
+      <c r="B46" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <f aca="false">B46-C46</f>
         <v>-4</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D47" s="0" t="n">
+      <c r="B47" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" s="1" t="n">
         <f aca="false">B47-C47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D48" s="0" t="n">
+      <c r="C48" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" s="1" t="n">
         <f aca="false">B48-C48</f>
         <v>4</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <f aca="false">B49-C49</f>
         <v>-4</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C50" s="0" t="n">
+      <c r="B50" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <f aca="false">B50-C50</f>
         <v>4</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <f aca="false">B51-C51</f>
         <v>-13</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C52" s="0" t="n">
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <f aca="false">B52-C52</f>
         <v>-8</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1660,6 +2583,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1668,14 +2592,1143 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="13.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="13.47"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false" t="array" ref="B3:B102">FREQUENCY('Raw Data and T Test'!B3:B52,A3:A102)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false" t="array" ref="C3:C102">FREQUENCY('Raw Data and T Test'!C3:C52,A3:A102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1685,4 +3738,27 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data and T Test" sheetId="1" state="visible" r:id="rId2"/>
@@ -280,7 +280,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -496,11 +496,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="91023417"/>
-        <c:axId val="81510714"/>
+        <c:axId val="44833237"/>
+        <c:axId val="57835507"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91023417"/>
+        <c:axId val="44833237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +528,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81510714"/>
+        <c:crossAx val="57835507"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -536,7 +536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81510714"/>
+        <c:axId val="57835507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -603,7 +603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91023417"/>
+        <c:crossAx val="44833237"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -651,7 +651,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -695,7 +695,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Frequencies!$B$2</c:f>
+              <c:f>Frequencies!$B$2:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1054,7 +1054,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Frequencies!$C$2</c:f>
+              <c:f>Frequencies!$C$2:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1084,6 +1084,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1409,11 +1410,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="80663517"/>
-        <c:axId val="60767259"/>
+        <c:axId val="84063601"/>
+        <c:axId val="58312555"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80663517"/>
+        <c:axId val="84063601"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1470,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60767259"/>
+        <c:crossAx val="58312555"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1477,7 +1478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60767259"/>
+        <c:axId val="58312555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1543,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80663517"/>
+        <c:crossAx val="84063601"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,9 +1606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>221760</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1615,8 +1616,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4094280" y="3619800"/>
-        <a:ext cx="5768640" cy="3241080"/>
+        <a:off x="4096800" y="3619800"/>
+        <a:ext cx="5769000" cy="3240360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1624,6 +1625,43 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>677160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10461600" y="3619440"/>
+          <a:ext cx="5576760" cy="3371760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1640,18 +1678,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>48960</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>48240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2931840" y="190800"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1671,11 +1709,11 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S42" activeCellId="0" sqref="S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.81"/>
@@ -2594,8 +2632,8 @@
   </sheetPr>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3747,8 +3785,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Raw Data and T Test" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Frequencies" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Formated Data" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t xml:space="preserve">Kernel Used</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t xml:space="preserve">Differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two-Sample t-Test Assuming Unequal Variance</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha</t>
@@ -86,6 +83,12 @@
   <si>
     <t xml:space="preserve">Bins(crude ik)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -144,6 +147,12 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,12 +162,33 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -187,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,7 +234,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,7 +334,951 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Distribution of Accuracy of an SVM Model Trained With the RBF Kernel vs the Custom Kernel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Frequencies!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Frequencies!$B$3:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Frequencies!$C$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Frequencies!$C$3:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="14714720"/>
+        <c:axId val="89360348"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="14714720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89360348"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89360348"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14714720"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -496,11 +1494,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="44833237"/>
-        <c:axId val="57835507"/>
+        <c:axId val="31332080"/>
+        <c:axId val="70923576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44833237"/>
+        <c:axId val="31332080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +1526,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57835507"/>
+        <c:crossAx val="70923576"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -536,7 +1534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57835507"/>
+        <c:axId val="70923576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -603,7 +1601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44833237"/>
+        <c:crossAx val="31332080"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -632,950 +1630,6 @@
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
               <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Times New Roman"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>Distribution of Accuracy of an SVM Model Trained With the RBF Kernel vs the Custom Kernel</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Frequencies!$B$2:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RBF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Frequencies!$B$3:$B$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Frequencies!$C$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Custom</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Frequencies!$C$3:$C$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="84063601"/>
-        <c:axId val="58312555"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="84063601"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:latin typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>Accuracy (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Times New Roman"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="58312555"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="58312555"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:latin typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>Frequency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Times New Roman"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="84063601"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="d9d9d9"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -1709,8 +1763,8 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S42" activeCellId="0" sqref="S42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1742,9 +1796,7 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
@@ -1762,12 +1814,13 @@
         <f aca="false">B3-C3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>0.05</v>
       </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -1783,12 +1836,13 @@
         <f aca="false">B4-C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -1804,10 +1858,10 @@
         <f aca="false">B5-C5</f>
         <v>-8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1826,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">AVERAGE(B3:B52)</f>
@@ -1852,7 +1906,7 @@
         <v>-8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">STDEV(B3:B52)</f>
@@ -1878,7 +1932,7 @@
         <v>-4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">(G7^2)</f>
@@ -1904,7 +1958,7 @@
         <v>-12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>50</v>
@@ -1928,7 +1982,7 @@
         <v>-4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">G6-H6</f>
@@ -1950,7 +2004,7 @@
         <v>-8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="n">
         <f aca="false">VAR(D3:D52)</f>
@@ -1972,7 +2026,7 @@
         <v>-4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>98</v>
@@ -1993,7 +2047,7 @@
         <v>-4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="n">
         <f aca="false">(G6-H6)/SQRT(G8/G9+H8/H9)</f>
@@ -2015,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1.6611</v>
@@ -2035,13 +2089,14 @@
         <f aca="false">B15-C15</f>
         <v>-17</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="n">
+      <c r="F15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <f aca="false">TTEST(B3:B52,C3:C52,1,3)</f>
         <v>0.000243109419268231</v>
       </c>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -2088,7 +2143,7 @@
         <v>-4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="n">
         <f aca="false">G7/SQRT(G9)</f>
@@ -2610,9 +2665,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2646,13 +2700,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -3783,14 +3837,674 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="9" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data and T Test" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t xml:space="preserve">Kernel Used</t>
   </si>
@@ -72,6 +72,9 @@
     <t xml:space="preserve">t Critical one-tail</t>
   </si>
   <si>
+    <t xml:space="preserve">← fix this</t>
+  </si>
+  <si>
     <t xml:space="preserve">P (T&lt;=t) one-tail</t>
   </si>
   <si>
@@ -102,7 +105,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,10 +125,14 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -139,11 +145,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -151,7 +152,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -232,6 +232,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -334,951 +338,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Times New Roman"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>Distribution of Accuracy of an SVM Model Trained With the RBF Kernel vs the Custom Kernel</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Frequencies!$B$2:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RBF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Frequencies!$B$3:$B$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Frequencies!$C$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Custom</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Frequencies!$C$3:$C$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="14714720"/>
-        <c:axId val="89360348"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="14714720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:latin typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>Accuracy (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Times New Roman"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="89360348"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="89360348"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:latin typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>Frequency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Times New Roman"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="14714720"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="d9d9d9"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1399,7 +459,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>51.2</c:v>
+                  <c:v>51.296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,7 +546,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.16</c:v>
+                  <c:v>54.084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,11 +554,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="31332080"/>
-        <c:axId val="70923576"/>
+        <c:axId val="93792311"/>
+        <c:axId val="11919388"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31332080"/>
+        <c:axId val="93792311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,15 +586,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70923576"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="11919388"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70923576"/>
+        <c:axId val="11919388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1601,8 +661,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31332080"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="93792311"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1630,6 +690,950 @@
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
               <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Distribution of Accuracy of an SVM Model Trained With the RBF Kernel vs the Custom Kernel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Frequencies!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Frequencies!$B$3:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Frequencies!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Frequencies!$C$3:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="3007695"/>
+        <c:axId val="69832756"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="3007695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69832756"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69832756"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3007695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -1681,73 +1685,31 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>810720</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>677160</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10461600" y="3619440"/>
-          <a:ext cx="5576760" cy="3371760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>943920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2931840" y="190800"/>
+        <a:off x="9639000" y="190440"/>
         <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1761,10 +1723,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1804,64 +1766,64 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>50</v>
+      <c r="B3" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">B3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>54</v>
+      <c r="B4" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">B4-C4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>-21</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5"/>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>58</v>
+      <c r="B5" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">B5-C5</f>
-        <v>-8</v>
-      </c>
-      <c r="G5" s="6" t="s">
+        <v>-17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1869,11 +1831,11 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>54</v>
+      <c r="B6" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">B6-C6</f>
@@ -1883,147 +1845,147 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="n">
-        <f aca="false">AVERAGE(B3:B52)</f>
-        <v>51.2</v>
+        <f aca="false">AVERAGE(B3:B252)</f>
+        <v>51.296</v>
       </c>
       <c r="H6" s="1" t="n">
-        <f aca="false">AVERAGE(C3:C52)</f>
-        <v>55.16</v>
+        <f aca="false">AVERAGE(C3:C252)</f>
+        <v>54.084</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>58</v>
+      <c r="B7" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">B7-C7</f>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="n">
-        <f aca="false">STDEV(B3:B52)</f>
-        <v>1.8516401995451</v>
+        <f aca="false">STDEV(B3:B252)</f>
+        <v>1.87575526957151</v>
       </c>
       <c r="H7" s="1" t="n">
-        <f aca="false">STDEV(C3:C52)</f>
-        <v>7.32164808033307</v>
+        <f aca="false">STDEV(C3:C252)</f>
+        <v>9.82072965332489</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>54</v>
+      <c r="B8" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">B8-C8</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">(G7^2)</f>
-        <v>3.42857142857143</v>
+        <v>3.5184578313253</v>
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">(H7^2)</f>
-        <v>53.6065306122449</v>
+        <v>96.4467309236949</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>62</v>
+      <c r="B9" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">B9-C9</f>
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>54</v>
+      <c r="B10" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">B10-C10</f>
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">G6-H6</f>
-        <v>-3.95999999999999</v>
+        <v>-2.788</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>62</v>
+      <c r="B11" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">B11-C11</f>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="n">
-        <f aca="false">VAR(D3:D52)</f>
-        <v>54.9779591836735</v>
+        <f aca="false">VAR(D3:D252)</f>
+        <v>99.3484497991969</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>54</v>
+      <c r="B12" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">B12-C12</f>
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -2036,10 +1998,10 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>54</v>
       </c>
       <c r="D13" s="1" t="n">
@@ -2051,91 +2013,94 @@
       </c>
       <c r="G13" s="1" t="n">
         <f aca="false">(G6-H6)/SQRT(G8/G9+H8/H9)</f>
-        <v>-3.70773833008212</v>
+        <v>-4.40898253592852</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>38</v>
+      <c r="B14" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">B14-C14</f>
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1.6611</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="n">
+      <c r="B15" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>67</v>
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">B15-C15</f>
         <v>-17</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <f aca="false">TTEST(B3:B52,C3:C52,1,3)</f>
-        <v>0.000243109419268231</v>
-      </c>
-      <c r="H15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <f aca="false">TTEST(B3:B252,C3:C252,1,3)</f>
+        <v>7.53160086219097E-006</v>
+      </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>50</v>
+      <c r="B16" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">B16-C16</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>54</v>
+      <c r="B17" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">B17-C17</f>
-        <v>-4</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="n">
+      <c r="B18" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>54</v>
       </c>
       <c r="D18" s="1" t="n">
@@ -2143,115 +2108,115 @@
         <v>-4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="n">
         <f aca="false">G7/SQRT(G9)</f>
-        <v>0.261861468283191</v>
+        <v>0.118633179698182</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">H7/SQRT(H9)</f>
-        <v>1.035437401413</v>
+        <v>0.621117479785249</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>50</v>
+      <c r="B19" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">B19-C19</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>58</v>
+      <c r="B20" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">B20-C20</f>
-        <v>-8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="n">
+      <c r="B21" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>54</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">B21-C21</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>62</v>
+      <c r="B22" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">B22-C22</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>50</v>
+      <c r="B23" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">B23-C23</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46</v>
+      <c r="B24" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>58</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">B24-C24</f>
-        <v>8</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1" t="n">
+      <c r="B25" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="n">
         <v>62</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -2263,295 +2228,295 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>62</v>
+      <c r="B26" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">B26-C26</f>
-        <v>-8</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>67</v>
+      <c r="B27" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">B27-C27</f>
-        <v>-17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C28" s="1" t="n">
+      <c r="B28" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="n">
         <v>42</v>
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">B28-C28</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>50</v>
+      <c r="B29" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>71</v>
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">B29-C29</f>
-        <v>0</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>58</v>
+      <c r="B30" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="n">
         <f aca="false">B30-C30</f>
-        <v>-8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>62</v>
+      <c r="B31" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>58</v>
       </c>
       <c r="D31" s="1" t="n">
         <f aca="false">B31-C31</f>
-        <v>-12</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>54</v>
+      <c r="B32" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>33</v>
       </c>
       <c r="D32" s="1" t="n">
         <f aca="false">B32-C32</f>
-        <v>-4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>58</v>
+      <c r="B33" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="n">
         <f aca="false">B33-C33</f>
-        <v>-8</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>67</v>
+      <c r="B34" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>71</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">B34-C34</f>
-        <v>-17</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>67</v>
+      <c r="B35" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>38</v>
       </c>
       <c r="D35" s="1" t="n">
         <f aca="false">B35-C35</f>
-        <v>-13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C36" s="1" t="n">
+      <c r="B36" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4" t="n">
         <v>54</v>
       </c>
       <c r="D36" s="1" t="n">
         <f aca="false">B36-C36</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>58</v>
+      <c r="B37" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="n">
         <f aca="false">B37-C37</f>
-        <v>-8</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>58</v>
+      <c r="B38" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="n">
         <f aca="false">B38-C38</f>
-        <v>-8</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>38</v>
+      <c r="B39" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>33</v>
       </c>
       <c r="D39" s="1" t="n">
         <f aca="false">B39-C39</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>58</v>
+      <c r="B40" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="n">
         <f aca="false">B40-C40</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>58</v>
+      <c r="B41" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>62</v>
       </c>
       <c r="D41" s="1" t="n">
         <f aca="false">B41-C41</f>
-        <v>-4</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>67</v>
+      <c r="B42" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>50</v>
       </c>
       <c r="D42" s="1" t="n">
         <f aca="false">B42-C42</f>
-        <v>-17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>50</v>
+      <c r="B43" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>54</v>
       </c>
       <c r="D43" s="1" t="n">
         <f aca="false">B43-C43</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>46</v>
+      <c r="B44" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>62</v>
       </c>
       <c r="D44" s="1" t="n">
         <f aca="false">B44-C44</f>
-        <v>4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C45" s="1" t="n">
+      <c r="B45" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4" t="n">
         <v>42</v>
       </c>
       <c r="D45" s="1" t="n">
@@ -2563,105 +2528,3105 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>54</v>
+      <c r="B46" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>40</v>
       </c>
       <c r="D46" s="1" t="n">
         <f aca="false">B46-C46</f>
-        <v>-4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C47" s="1" t="n">
+      <c r="B47" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C47" s="4" t="n">
         <v>50</v>
       </c>
       <c r="D47" s="1" t="n">
         <f aca="false">B47-C47</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>50</v>
+      <c r="B48" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>62</v>
       </c>
       <c r="D48" s="1" t="n">
         <f aca="false">B48-C48</f>
-        <v>4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C49" s="1" t="n">
+      <c r="B49" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C49" s="4" t="n">
         <v>58</v>
       </c>
       <c r="D49" s="1" t="n">
         <f aca="false">B49-C49</f>
-        <v>-4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>46</v>
+      <c r="B50" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>54</v>
       </c>
       <c r="D50" s="1" t="n">
         <f aca="false">B50-C50</f>
-        <v>4</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="C51" s="1" t="n">
-        <v>67</v>
+      <c r="B51" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>42</v>
       </c>
       <c r="D51" s="1" t="n">
         <f aca="false">B51-C51</f>
-        <v>-13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C52" s="1" t="n">
-        <v>58</v>
+      <c r="B52" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>46</v>
       </c>
       <c r="D52" s="1" t="n">
         <f aca="false">B52-C52</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <f aca="false">B53-C53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <f aca="false">B54-C54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <f aca="false">B55-C55</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <f aca="false">B56-C56</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <f aca="false">B57-C57</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <f aca="false">B58-C58</f>
         <v>-8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <f aca="false">B59-C59</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <f aca="false">B60-C60</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <f aca="false">B61-C61</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C62" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <f aca="false">B62-C62</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C63" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <f aca="false">B63-C63</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <f aca="false">B64-C64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C65" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <f aca="false">B65-C65</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C66" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <f aca="false">B66-C66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <f aca="false">B67-C67</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <f aca="false">B68-C68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <f aca="false">B69-C69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C70" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <f aca="false">B70-C70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <f aca="false">B71-C71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <f aca="false">B72-C72</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C73" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <f aca="false">B73-C73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C74" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <f aca="false">B74-C74</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <f aca="false">B75-C75</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <f aca="false">B76-C76</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <f aca="false">B77-C77</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C78" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <f aca="false">B78-C78</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C79" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <f aca="false">B79-C79</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <f aca="false">B80-C80</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C81" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <f aca="false">B81-C81</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <f aca="false">B82-C82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <f aca="false">B83-C83</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <f aca="false">B84-C84</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <f aca="false">B85-C85</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C86" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <f aca="false">B86-C86</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C87" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <f aca="false">B87-C87</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <f aca="false">B88-C88</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C89" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <f aca="false">B89-C89</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C90" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <f aca="false">B90-C90</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <f aca="false">B91-C91</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <f aca="false">B92-C92</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <f aca="false">B93-C93</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <f aca="false">B94-C94</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <f aca="false">B95-C95</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <f aca="false">B96-C96</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <f aca="false">B97-C97</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <f aca="false">B98-C98</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <f aca="false">B99-C99</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <f aca="false">B100-C100</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <f aca="false">B101-C101</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C102" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <f aca="false">B102-C102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C103" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <f aca="false">B103-C103</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <f aca="false">B104-C104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C105" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <f aca="false">B105-C105</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C106" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <f aca="false">B106-C106</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C107" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <f aca="false">B107-C107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <f aca="false">B108-C108</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C109" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <f aca="false">B109-C109</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C110" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <f aca="false">B110-C110</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C111" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <f aca="false">B111-C111</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <f aca="false">B112-C112</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C113" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <f aca="false">B113-C113</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <f aca="false">B114-C114</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <f aca="false">B115-C115</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <f aca="false">B116-C116</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <f aca="false">B117-C117</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <f aca="false">B118-C118</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <f aca="false">B119-C119</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <f aca="false">B120-C120</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <f aca="false">B121-C121</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <f aca="false">B122-C122</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <f aca="false">B123-C123</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <f aca="false">B124-C124</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <f aca="false">B125-C125</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <f aca="false">B126-C126</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <f aca="false">B127-C127</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C128" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <f aca="false">B128-C128</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C129" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <f aca="false">B129-C129</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C130" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <f aca="false">B130-C130</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C131" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <f aca="false">B131-C131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C132" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <f aca="false">B132-C132</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C133" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <f aca="false">B133-C133</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C134" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <f aca="false">B134-C134</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C135" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <f aca="false">B135-C135</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <f aca="false">B136-C136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C137" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <f aca="false">B137-C137</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C138" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <f aca="false">B138-C138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C139" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <f aca="false">B139-C139</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <f aca="false">B140-C140</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C141" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <f aca="false">B141-C141</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C142" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <f aca="false">B142-C142</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C143" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <f aca="false">B143-C143</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C144" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <f aca="false">B144-C144</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C145" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <f aca="false">B145-C145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C146" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <f aca="false">B146-C146</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C147" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <f aca="false">B147-C147</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C148" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <f aca="false">B148-C148</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C149" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <f aca="false">B149-C149</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C150" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <f aca="false">B150-C150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C151" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <f aca="false">B151-C151</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <f aca="false">B152-C152</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C153" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <f aca="false">B153-C153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C154" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D154" s="1" t="n">
+        <f aca="false">B154-C154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C155" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <f aca="false">B155-C155</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C156" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <f aca="false">B156-C156</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C157" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <f aca="false">B157-C157</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C158" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <f aca="false">B158-C158</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C159" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <f aca="false">B159-C159</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C160" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D160" s="1" t="n">
+        <f aca="false">B160-C160</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C161" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D161" s="1" t="n">
+        <f aca="false">B161-C161</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C162" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D162" s="1" t="n">
+        <f aca="false">B162-C162</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C163" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D163" s="1" t="n">
+        <f aca="false">B163-C163</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C164" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D164" s="1" t="n">
+        <f aca="false">B164-C164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C165" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D165" s="1" t="n">
+        <f aca="false">B165-C165</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C166" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D166" s="1" t="n">
+        <f aca="false">B166-C166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C167" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D167" s="1" t="n">
+        <f aca="false">B167-C167</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C168" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D168" s="1" t="n">
+        <f aca="false">B168-C168</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C169" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D169" s="1" t="n">
+        <f aca="false">B169-C169</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C170" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D170" s="1" t="n">
+        <f aca="false">B170-C170</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C171" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D171" s="1" t="n">
+        <f aca="false">B171-C171</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C172" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D172" s="1" t="n">
+        <f aca="false">B172-C172</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C173" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D173" s="1" t="n">
+        <f aca="false">B173-C173</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C174" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D174" s="1" t="n">
+        <f aca="false">B174-C174</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C175" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D175" s="1" t="n">
+        <f aca="false">B175-C175</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C176" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D176" s="1" t="n">
+        <f aca="false">B176-C176</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C177" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D177" s="1" t="n">
+        <f aca="false">B177-C177</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C178" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D178" s="1" t="n">
+        <f aca="false">B178-C178</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C179" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D179" s="1" t="n">
+        <f aca="false">B179-C179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C180" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D180" s="1" t="n">
+        <f aca="false">B180-C180</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C181" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D181" s="1" t="n">
+        <f aca="false">B181-C181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C182" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D182" s="1" t="n">
+        <f aca="false">B182-C182</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C183" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D183" s="1" t="n">
+        <f aca="false">B183-C183</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C184" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D184" s="1" t="n">
+        <f aca="false">B184-C184</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C185" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D185" s="1" t="n">
+        <f aca="false">B185-C185</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C186" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D186" s="1" t="n">
+        <f aca="false">B186-C186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C187" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D187" s="1" t="n">
+        <f aca="false">B187-C187</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C188" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D188" s="1" t="n">
+        <f aca="false">B188-C188</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C189" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D189" s="1" t="n">
+        <f aca="false">B189-C189</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C190" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D190" s="1" t="n">
+        <f aca="false">B190-C190</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C191" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D191" s="1" t="n">
+        <f aca="false">B191-C191</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D192" s="1" t="n">
+        <f aca="false">B192-C192</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C193" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D193" s="1" t="n">
+        <f aca="false">B193-C193</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C194" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D194" s="1" t="n">
+        <f aca="false">B194-C194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C195" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D195" s="1" t="n">
+        <f aca="false">B195-C195</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C196" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D196" s="1" t="n">
+        <f aca="false">B196-C196</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C197" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D197" s="1" t="n">
+        <f aca="false">B197-C197</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C198" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D198" s="1" t="n">
+        <f aca="false">B198-C198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C199" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D199" s="1" t="n">
+        <f aca="false">B199-C199</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C200" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D200" s="1" t="n">
+        <f aca="false">B200-C200</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C201" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D201" s="1" t="n">
+        <f aca="false">B201-C201</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C202" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D202" s="1" t="n">
+        <f aca="false">B202-C202</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C203" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <f aca="false">B203-C203</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C204" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <f aca="false">B204-C204</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C205" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D205" s="1" t="n">
+        <f aca="false">B205-C205</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C206" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D206" s="1" t="n">
+        <f aca="false">B206-C206</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C207" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D207" s="1" t="n">
+        <f aca="false">B207-C207</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C208" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D208" s="1" t="n">
+        <f aca="false">B208-C208</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C209" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D209" s="1" t="n">
+        <f aca="false">B209-C209</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C210" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D210" s="1" t="n">
+        <f aca="false">B210-C210</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C211" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D211" s="1" t="n">
+        <f aca="false">B211-C211</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C212" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D212" s="1" t="n">
+        <f aca="false">B212-C212</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C213" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D213" s="1" t="n">
+        <f aca="false">B213-C213</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C214" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D214" s="1" t="n">
+        <f aca="false">B214-C214</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C215" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D215" s="1" t="n">
+        <f aca="false">B215-C215</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C216" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D216" s="1" t="n">
+        <f aca="false">B216-C216</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C217" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D217" s="1" t="n">
+        <f aca="false">B217-C217</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C218" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D218" s="1" t="n">
+        <f aca="false">B218-C218</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C219" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D219" s="1" t="n">
+        <f aca="false">B219-C219</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C220" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D220" s="1" t="n">
+        <f aca="false">B220-C220</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C221" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D221" s="1" t="n">
+        <f aca="false">B221-C221</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C222" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D222" s="1" t="n">
+        <f aca="false">B222-C222</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C223" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D223" s="1" t="n">
+        <f aca="false">B223-C223</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C224" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D224" s="1" t="n">
+        <f aca="false">B224-C224</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C225" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D225" s="1" t="n">
+        <f aca="false">B225-C225</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C226" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D226" s="1" t="n">
+        <f aca="false">B226-C226</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C227" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D227" s="1" t="n">
+        <f aca="false">B227-C227</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C228" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D228" s="1" t="n">
+        <f aca="false">B228-C228</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C229" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D229" s="1" t="n">
+        <f aca="false">B229-C229</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C230" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D230" s="1" t="n">
+        <f aca="false">B230-C230</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C231" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D231" s="1" t="n">
+        <f aca="false">B231-C231</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C232" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D232" s="1" t="n">
+        <f aca="false">B232-C232</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C233" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D233" s="1" t="n">
+        <f aca="false">B233-C233</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C234" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D234" s="1" t="n">
+        <f aca="false">B234-C234</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C235" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D235" s="1" t="n">
+        <f aca="false">B235-C235</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C236" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D236" s="1" t="n">
+        <f aca="false">B236-C236</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C237" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D237" s="1" t="n">
+        <f aca="false">B237-C237</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C238" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D238" s="1" t="n">
+        <f aca="false">B238-C238</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C239" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D239" s="1" t="n">
+        <f aca="false">B239-C239</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C240" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D240" s="1" t="n">
+        <f aca="false">B240-C240</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C241" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D241" s="1" t="n">
+        <f aca="false">B241-C241</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C242" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D242" s="1" t="n">
+        <f aca="false">B242-C242</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C243" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D243" s="1" t="n">
+        <f aca="false">B243-C243</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C244" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D244" s="1" t="n">
+        <f aca="false">B244-C244</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C245" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D245" s="1" t="n">
+        <f aca="false">B245-C245</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C246" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D246" s="1" t="n">
+        <f aca="false">B246-C246</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C247" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D247" s="1" t="n">
+        <f aca="false">B247-C247</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C248" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D248" s="1" t="n">
+        <f aca="false">B248-C248</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C249" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D249" s="1" t="n">
+        <f aca="false">B249-C249</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C250" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D250" s="1" t="n">
+        <f aca="false">B250-C250</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C251" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D251" s="1" t="n">
+        <f aca="false">B251-C251</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C252" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D252" s="1" t="n">
+        <f aca="false">B252-C252</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2686,8 +5651,8 @@
   </sheetPr>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S82" activeCellId="0" sqref="S82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2700,13 +5665,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -3077,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,10 +6226,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3305,10 +6270,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,7 +6793,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3846,21 +6810,21 @@
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1"/>
@@ -4466,40 +7430,40 @@
       <c r="D52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="9" t="n">
+      <c r="A53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="10" t="n">
         <v>51.2</v>
       </c>
-      <c r="C53" s="9" t="n">
+      <c r="C53" s="10" t="n">
         <v>55.16</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
